--- a/data/processed/phregHazardRatios.xlsx
+++ b/data/processed/phregHazardRatios.xlsx
@@ -189,7 +189,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -672,7 +672,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -721,19 +721,19 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -756,14 +756,9 @@
         <filter val="b Weighted, covariates (6-month daily steroid dose)"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
-  <sortState ref="A15:L757">
-    <sortCondition descending="1" ref="H1:H775"/>
+  <sortState ref="A14:L757">
+    <sortCondition ref="A1:A775"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" name="outcomeCategory"/>
@@ -771,11 +766,11 @@
     <tableColumn id="3" name="model"/>
     <tableColumn id="4" name="comparison"/>
     <tableColumn id="5" name="database"/>
-    <tableColumn id="6" name="nTNF" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="7" name="nComparator" dataDxfId="0" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="HazardRatio" dataDxfId="1"/>
-    <tableColumn id="9" name="RobustWaldLower" dataDxfId="4"/>
-    <tableColumn id="10" name="RobustWaldUpper" dataDxfId="3"/>
+    <tableColumn id="6" name="nTNF" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="7" name="nComparator" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="HazardRatio" dataDxfId="2"/>
+    <tableColumn id="9" name="RobustWaldLower" dataDxfId="1"/>
+    <tableColumn id="10" name="RobustWaldUpper" dataDxfId="0"/>
     <tableColumn id="11" name="indValidHR"/>
     <tableColumn id="12" name="indSigHR"/>
   </tableColumns>
@@ -1049,7 +1044,7 @@
   <dimension ref="A1:L775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1576,36 +1571,36 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>537</v>
+        <v>2817</v>
       </c>
       <c r="G14" s="2">
-        <v>139</v>
+        <v>708</v>
       </c>
       <c r="H14" s="1">
-        <v>14514.490675999999</v>
+        <v>0.21017501659999999</v>
       </c>
       <c r="I14" s="1">
-        <v>1999.5326875000001</v>
+        <v>5.5953812200000001E-2</v>
       </c>
       <c r="J14" s="1">
-        <v>105359.83777</v>
+        <v>0.78946430720000005</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -1614,36 +1609,36 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>537</v>
+        <v>2188</v>
       </c>
       <c r="G15" s="2">
-        <v>139</v>
+        <v>1410</v>
       </c>
       <c r="H15" s="1">
-        <v>14.579459324</v>
+        <v>2.0730367235</v>
       </c>
       <c r="I15" s="1">
-        <v>1.8609389772</v>
+        <v>0.93923267749999995</v>
       </c>
       <c r="J15" s="1">
-        <v>114.22224842999999</v>
+        <v>4.5755235739</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1652,36 +1647,36 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
-        <v>2814</v>
+        <v>537</v>
       </c>
       <c r="G16" s="2">
-        <v>708</v>
+        <v>139</v>
       </c>
       <c r="H16" s="1">
-        <v>8.0070926475000004</v>
+        <v>14514.490675999999</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0161864478</v>
+        <v>1999.5326875000001</v>
       </c>
       <c r="J16" s="1">
-        <v>63.092292567000001</v>
+        <v>105359.83777</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1690,60 +1685,60 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>536</v>
+        <v>2817</v>
       </c>
       <c r="G17" s="2">
-        <v>662</v>
+        <v>2648</v>
       </c>
       <c r="H17" s="1">
-        <v>5.2215718708000001</v>
+        <v>0.2278014988</v>
       </c>
       <c r="I17" s="1">
-        <v>0.3212408303</v>
+        <v>7.1372567900000003E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>84.873435236999995</v>
+        <v>0.72707938559999996</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2">
-        <v>515</v>
+        <v>2188</v>
       </c>
       <c r="G18" s="2">
-        <v>132</v>
+        <v>4220</v>
       </c>
       <c r="H18" s="1">
-        <v>4.4291724723000003</v>
+        <v>1.3125863516</v>
       </c>
       <c r="I18" s="1">
-        <v>0.55815964979999999</v>
+        <v>0.73981704059999998</v>
       </c>
       <c r="J18" s="1">
-        <v>35.146877414000002</v>
+        <v>2.3287959535999998</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1754,34 +1749,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="G19" s="2">
-        <v>135</v>
+        <v>663</v>
       </c>
       <c r="H19" s="1">
-        <v>4.1021638147999999</v>
+        <v>0.24688084699999999</v>
       </c>
       <c r="I19" s="1">
-        <v>0.81493168090000001</v>
+        <v>2.74114198E-2</v>
       </c>
       <c r="J19" s="1">
-        <v>20.649274480999999</v>
+        <v>2.2235313988000001</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2932,10 +2927,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
@@ -2944,22 +2939,22 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F50" s="2">
-        <v>533</v>
+        <v>2819</v>
       </c>
       <c r="G50" s="2">
-        <v>139</v>
+        <v>710</v>
       </c>
       <c r="H50" s="1">
-        <v>4.0563568630000004</v>
+        <v>0.72637512130000004</v>
       </c>
       <c r="I50" s="1">
-        <v>0.41020945580000001</v>
+        <v>0.33625335680000001</v>
       </c>
       <c r="J50" s="1">
-        <v>40.111291356999999</v>
+        <v>1.569116876</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -2970,10 +2965,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
@@ -2982,22 +2977,22 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2">
-        <v>531</v>
+        <v>2197</v>
       </c>
       <c r="G51" s="2">
-        <v>137</v>
+        <v>1427</v>
       </c>
       <c r="H51" s="1">
-        <v>4.0372754458999998</v>
+        <v>1.33249566</v>
       </c>
       <c r="I51" s="1">
-        <v>0.50879979890000004</v>
+        <v>0.87751864329999996</v>
       </c>
       <c r="J51" s="1">
-        <v>32.035376313</v>
+        <v>2.0233697567000002</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3008,16 +3003,16 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -3026,30 +3021,30 @@
         <v>537</v>
       </c>
       <c r="G52" s="2">
-        <v>663</v>
+        <v>139</v>
       </c>
       <c r="H52" s="1">
-        <v>3.6435167192</v>
+        <v>1.9704262741</v>
       </c>
       <c r="I52" s="1">
-        <v>1.5989366357999999</v>
+        <v>0.40598843089999997</v>
       </c>
       <c r="J52" s="1">
-        <v>8.302526683</v>
+        <v>9.5632766991999993</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
         <v>21</v>
@@ -3058,36 +3053,36 @@
         <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2">
-        <v>519</v>
+        <v>2819</v>
       </c>
       <c r="G53" s="2">
-        <v>656</v>
+        <v>2651</v>
       </c>
       <c r="H53" s="1">
-        <v>3.2824158923</v>
+        <v>1.2757720348999999</v>
       </c>
       <c r="I53" s="1">
-        <v>1.0937543217000001</v>
+        <v>0.67494800160000001</v>
       </c>
       <c r="J53" s="1">
-        <v>9.8507076743000006</v>
+        <v>2.4114365567</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
         <v>21</v>
@@ -3099,33 +3094,33 @@
         <v>18</v>
       </c>
       <c r="F54" s="2">
-        <v>2188</v>
+        <v>2197</v>
       </c>
       <c r="G54" s="2">
-        <v>4253</v>
+        <v>4262</v>
       </c>
       <c r="H54" s="1">
-        <v>2.7116786446000001</v>
+        <v>0.9839659087</v>
       </c>
       <c r="I54" s="1">
-        <v>1.2044427167</v>
+        <v>0.71013821850000003</v>
       </c>
       <c r="J54" s="1">
-        <v>6.1050649976000004</v>
+        <v>1.3633809367</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
         <v>21</v>
@@ -3143,13 +3138,13 @@
         <v>663</v>
       </c>
       <c r="H55" s="1">
-        <v>2.6968958810000001</v>
+        <v>2.2855926567</v>
       </c>
       <c r="I55" s="1">
-        <v>0.52357501910000004</v>
+        <v>0.86470252660000002</v>
       </c>
       <c r="J55" s="1">
-        <v>13.891509578999999</v>
+        <v>6.0413074231000001</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -4303,31 +4298,31 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
         <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F86" s="2">
-        <v>537</v>
+        <v>2791</v>
       </c>
       <c r="G86" s="2">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="H86" s="1">
-        <v>2.2855926567</v>
+        <v>0.8769050464</v>
       </c>
       <c r="I86" s="1">
-        <v>0.86470252660000002</v>
+        <v>0.42173757719999999</v>
       </c>
       <c r="J86" s="1">
-        <v>6.0413074231000001</v>
+        <v>1.8233197656</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4341,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
         <v>21</v>
@@ -4353,19 +4348,19 @@
         <v>18</v>
       </c>
       <c r="F87" s="2">
-        <v>2188</v>
+        <v>2111</v>
       </c>
       <c r="G87" s="2">
-        <v>1410</v>
+        <v>1337</v>
       </c>
       <c r="H87" s="1">
-        <v>2.0730367235</v>
+        <v>0.9491088956</v>
       </c>
       <c r="I87" s="1">
-        <v>0.93923267749999995</v>
+        <v>0.68105009139999995</v>
       </c>
       <c r="J87" s="1">
-        <v>4.5755235739</v>
+        <v>1.3226746566000001</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -4376,72 +4371,72 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
         <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F88" s="2">
-        <v>2705</v>
+        <v>530</v>
       </c>
       <c r="G88" s="2">
-        <v>2607</v>
+        <v>136</v>
       </c>
       <c r="H88" s="1">
-        <v>2.0246364253000002</v>
+        <v>0.89315992909999997</v>
       </c>
       <c r="I88" s="1">
-        <v>1.2893210849000001</v>
+        <v>0.23242117079999999</v>
       </c>
       <c r="J88" s="1">
-        <v>3.1793109588999999</v>
+        <v>3.4322805287000002</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
         <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="2">
-        <v>2803</v>
+        <v>2791</v>
       </c>
       <c r="G89" s="2">
-        <v>705</v>
+        <v>2616</v>
       </c>
       <c r="H89" s="1">
-        <v>2.0137933506999999</v>
+        <v>0.72880230670000001</v>
       </c>
       <c r="I89" s="1">
-        <v>0.84216212030000004</v>
+        <v>0.46126415910000002</v>
       </c>
       <c r="J89" s="1">
-        <v>4.8154192187999998</v>
+        <v>1.1515154427000001</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -4455,31 +4450,31 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
         <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F90" s="2">
-        <v>537</v>
+        <v>2111</v>
       </c>
       <c r="G90" s="2">
-        <v>139</v>
+        <v>4102</v>
       </c>
       <c r="H90" s="1">
-        <v>1.9704262741</v>
+        <v>0.76229247570000003</v>
       </c>
       <c r="I90" s="1">
-        <v>0.40598843089999997</v>
+        <v>0.57159108579999995</v>
       </c>
       <c r="J90" s="1">
-        <v>9.5632766991999993</v>
+        <v>1.0166180561</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -4490,10 +4485,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
         <v>21</v>
@@ -4502,28 +4497,28 @@
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F91" s="2">
-        <v>2194</v>
+        <v>530</v>
       </c>
       <c r="G91" s="2">
-        <v>4258</v>
+        <v>658</v>
       </c>
       <c r="H91" s="1">
-        <v>1.8975667490999999</v>
+        <v>0.38011368810000001</v>
       </c>
       <c r="I91" s="1">
-        <v>0.75606249560000005</v>
+        <v>0.172832078</v>
       </c>
       <c r="J91" s="1">
-        <v>4.7625157813000003</v>
+        <v>0.83599304919999995</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5668,10 +5663,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
@@ -5680,22 +5675,22 @@
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F122" s="2">
-        <v>2194</v>
+        <v>2801</v>
       </c>
       <c r="G122" s="2">
-        <v>1422</v>
+        <v>705</v>
       </c>
       <c r="H122" s="1">
-        <v>1.7541805613000001</v>
+        <v>1.1340230833</v>
       </c>
       <c r="I122" s="1">
-        <v>0.54729898180000003</v>
+        <v>0.4110461916</v>
       </c>
       <c r="J122" s="1">
-        <v>5.6224285881</v>
+        <v>3.1286224750999998</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -5709,7 +5704,7 @@
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
         <v>21</v>
@@ -5718,22 +5713,22 @@
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F123" s="2">
-        <v>2805</v>
+        <v>2147</v>
       </c>
       <c r="G123" s="2">
-        <v>704</v>
+        <v>1377</v>
       </c>
       <c r="H123" s="1">
-        <v>1.7311002058</v>
+        <v>1.4730398079</v>
       </c>
       <c r="I123" s="1">
-        <v>0.52253939810000005</v>
+        <v>0.97934355689999997</v>
       </c>
       <c r="J123" s="1">
-        <v>5.7348937395000004</v>
+        <v>2.2156129588</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -5744,34 +5739,34 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F124" s="2">
-        <v>2818</v>
+        <v>533</v>
       </c>
       <c r="G124" s="2">
-        <v>2651</v>
+        <v>139</v>
       </c>
       <c r="H124" s="1">
-        <v>1.7143065207999999</v>
+        <v>4.0563568630000004</v>
       </c>
       <c r="I124" s="1">
-        <v>0.1500028555</v>
+        <v>0.41020945580000001</v>
       </c>
       <c r="J124" s="1">
-        <v>19.591939344</v>
+        <v>40.111291356999999</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -5794,22 +5789,22 @@
         <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F125" s="2">
-        <v>533</v>
+        <v>2801</v>
       </c>
       <c r="G125" s="2">
-        <v>662</v>
+        <v>2643</v>
       </c>
       <c r="H125" s="1">
-        <v>1.6951485899000001</v>
+        <v>0.84290236750000003</v>
       </c>
       <c r="I125" s="1">
-        <v>0.43714347539999998</v>
+        <v>0.37733617110000001</v>
       </c>
       <c r="J125" s="1">
-        <v>6.5734224657000002</v>
+        <v>1.8828950299</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -5820,34 +5815,34 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F126" s="2">
-        <v>2817</v>
+        <v>2147</v>
       </c>
       <c r="G126" s="2">
-        <v>709</v>
+        <v>4186</v>
       </c>
       <c r="H126" s="1">
-        <v>1.6515237266</v>
+        <v>1.0752809857000001</v>
       </c>
       <c r="I126" s="1">
-        <v>0.2069748401</v>
+        <v>0.77006556039999996</v>
       </c>
       <c r="J126" s="1">
-        <v>13.178078158</v>
+        <v>1.5014685213000001</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -5858,10 +5853,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
@@ -5870,28 +5865,28 @@
         <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F127" s="2">
-        <v>2097</v>
+        <v>533</v>
       </c>
       <c r="G127" s="2">
-        <v>4164</v>
+        <v>662</v>
       </c>
       <c r="H127" s="1">
-        <v>1.6483653250000001</v>
+        <v>1.6951485899000001</v>
       </c>
       <c r="I127" s="1">
-        <v>1.1370726289999999</v>
+        <v>0.43714347539999998</v>
       </c>
       <c r="J127" s="1">
-        <v>2.3895643738999999</v>
+        <v>6.5734224657000002</v>
       </c>
       <c r="K127">
         <v>1</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -7034,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -7048,25 +7043,25 @@
         <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F158" s="2">
-        <v>537</v>
+        <v>2805</v>
       </c>
       <c r="G158" s="2">
-        <v>139</v>
+        <v>704</v>
       </c>
       <c r="H158" s="1">
-        <v>7849.3139576000003</v>
+        <v>1.7311002058</v>
       </c>
       <c r="I158" s="1">
-        <v>1842.8408843</v>
+        <v>0.52253939810000005</v>
       </c>
       <c r="J158" s="1">
-        <v>33433.016452999997</v>
+        <v>5.7348937395000004</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158">
         <v>0</v>
@@ -7074,10 +7069,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
@@ -7086,22 +7081,22 @@
         <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F159" s="2">
-        <v>2648</v>
+        <v>2158</v>
       </c>
       <c r="G159" s="2">
-        <v>666</v>
+        <v>1391</v>
       </c>
       <c r="H159" s="1">
-        <v>1.6172880792</v>
+        <v>0.88586770349999999</v>
       </c>
       <c r="I159" s="1">
-        <v>0.94300291930000002</v>
+        <v>0.58314562240000001</v>
       </c>
       <c r="J159" s="1">
-        <v>2.7737143519999998</v>
+        <v>1.3457386251000001</v>
       </c>
       <c r="K159">
         <v>1</v>
@@ -7112,37 +7107,37 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C160" t="s">
         <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F160" s="2">
-        <v>2195</v>
+        <v>537</v>
       </c>
       <c r="G160" s="2">
-        <v>4259</v>
+        <v>139</v>
       </c>
       <c r="H160" s="1">
-        <v>1.5882348749999999</v>
+        <v>7849.3139576000003</v>
       </c>
       <c r="I160" s="1">
-        <v>0.47903008619999998</v>
+        <v>1842.8408843</v>
       </c>
       <c r="J160" s="1">
-        <v>5.2658279523999996</v>
+        <v>33433.016452999997</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160">
         <v>0</v>
@@ -7150,10 +7145,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
         <v>21</v>
@@ -7165,19 +7160,19 @@
         <v>17</v>
       </c>
       <c r="F161" s="2">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="G161" s="2">
-        <v>2640</v>
+        <v>2645</v>
       </c>
       <c r="H161" s="1">
-        <v>1.5872359635</v>
+        <v>0.96097504050000004</v>
       </c>
       <c r="I161" s="1">
-        <v>0.93420503669999999</v>
+        <v>0.44823806059999999</v>
       </c>
       <c r="J161" s="1">
-        <v>2.6967506112000001</v>
+        <v>2.0602289487999998</v>
       </c>
       <c r="K161">
         <v>1</v>
@@ -7188,78 +7183,78 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B162" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C162" t="s">
         <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E162" t="s">
         <v>18</v>
       </c>
       <c r="F162" s="2">
-        <v>2193</v>
+        <v>2158</v>
       </c>
       <c r="G162" s="2">
-        <v>1424</v>
+        <v>4188</v>
       </c>
       <c r="H162" s="1">
-        <v>1.5610010845</v>
+        <v>0.66814212559999997</v>
       </c>
       <c r="I162" s="1">
-        <v>0.53340958179999998</v>
+        <v>0.47303352100000001</v>
       </c>
       <c r="J162" s="1">
-        <v>4.5682051256999996</v>
+        <v>0.94372571949999995</v>
       </c>
       <c r="K162">
         <v>1</v>
       </c>
       <c r="L162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s">
         <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F163" s="2">
-        <v>2084</v>
+        <v>537</v>
       </c>
       <c r="G163" s="2">
-        <v>1343</v>
+        <v>663</v>
       </c>
       <c r="H163" s="1">
-        <v>1.5571604146</v>
+        <v>0.17947740700000001</v>
       </c>
       <c r="I163" s="1">
-        <v>0.92787704959999995</v>
+        <v>3.7171941100000001E-2</v>
       </c>
       <c r="J163" s="1">
-        <v>2.6132218247000001</v>
+        <v>0.86657136069999996</v>
       </c>
       <c r="K163">
         <v>1</v>
       </c>
       <c r="L163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -8402,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>27</v>
       </c>
@@ -8416,25 +8411,25 @@
         <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F194" s="2">
-        <v>537</v>
+        <v>2817</v>
       </c>
       <c r="G194" s="2">
-        <v>139</v>
+        <v>709</v>
       </c>
       <c r="H194" s="1">
-        <v>804246.06761999999</v>
+        <v>0.67789106590000003</v>
       </c>
       <c r="I194" s="1">
-        <v>232834.09808</v>
+        <v>8.2986354400000004E-2</v>
       </c>
       <c r="J194" s="1">
-        <v>2777994.0421000002</v>
+        <v>5.5374922873000001</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L194">
         <v>0</v>
@@ -8442,10 +8437,10 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B195" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C195" t="s">
         <v>21</v>
@@ -8454,22 +8449,22 @@
         <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F195" s="2">
-        <v>534</v>
+        <v>2185</v>
       </c>
       <c r="G195" s="2">
-        <v>138</v>
+        <v>1412</v>
       </c>
       <c r="H195" s="1">
-        <v>1.5116942872000001</v>
+        <v>1.1137974291999999</v>
       </c>
       <c r="I195" s="1">
-        <v>0.28164634599999999</v>
+        <v>0.60510743160000002</v>
       </c>
       <c r="J195" s="1">
-        <v>8.1137911082999992</v>
+        <v>2.0501230832999999</v>
       </c>
       <c r="K195">
         <v>1</v>
@@ -8480,43 +8475,43 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B196" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C196" t="s">
         <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F196" s="2">
-        <v>2749</v>
+        <v>537</v>
       </c>
       <c r="G196" s="2">
-        <v>2618</v>
+        <v>139</v>
       </c>
       <c r="H196" s="1">
-        <v>1.4919544155</v>
+        <v>804246.06761999999</v>
       </c>
       <c r="I196" s="1">
-        <v>0.97839371610000003</v>
+        <v>232834.09808</v>
       </c>
       <c r="J196" s="1">
-        <v>2.2750840905</v>
+        <v>2777994.0421000002</v>
       </c>
       <c r="K196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>27</v>
       </c>
@@ -8530,25 +8525,25 @@
         <v>19</v>
       </c>
       <c r="E197" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F197" s="2">
-        <v>537</v>
+        <v>2817</v>
       </c>
       <c r="G197" s="2">
-        <v>663</v>
+        <v>2648</v>
       </c>
       <c r="H197" s="1">
-        <v>798423.21943000006</v>
+        <v>0.78195662799999999</v>
       </c>
       <c r="I197" s="1">
-        <v>231245.36882999999</v>
+        <v>0.27327751099999997</v>
       </c>
       <c r="J197" s="1">
-        <v>2756723.91</v>
+        <v>2.2374917197999999</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -8559,31 +8554,31 @@
         <v>27</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C198" t="s">
         <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E198" t="s">
         <v>18</v>
       </c>
       <c r="F198" s="2">
-        <v>2147</v>
+        <v>2185</v>
       </c>
       <c r="G198" s="2">
-        <v>1377</v>
+        <v>4239</v>
       </c>
       <c r="H198" s="1">
-        <v>1.4730398079</v>
+        <v>1.010719226</v>
       </c>
       <c r="I198" s="1">
-        <v>0.97934355689999997</v>
+        <v>0.6004550917</v>
       </c>
       <c r="J198" s="1">
-        <v>2.2156129588</v>
+        <v>1.7012985116999999</v>
       </c>
       <c r="K198">
         <v>1</v>
@@ -8594,10 +8589,10 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C199" t="s">
         <v>21</v>
@@ -8606,25 +8601,25 @@
         <v>19</v>
       </c>
       <c r="E199" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F199" s="2">
-        <v>2193</v>
+        <v>537</v>
       </c>
       <c r="G199" s="2">
-        <v>4253</v>
+        <v>663</v>
       </c>
       <c r="H199" s="1">
-        <v>1.4352265825999999</v>
+        <v>798423.21943000006</v>
       </c>
       <c r="I199" s="1">
-        <v>0.61515992149999998</v>
+        <v>231245.36882999999</v>
       </c>
       <c r="J199" s="1">
-        <v>3.3485200699000002</v>
+        <v>2756723.91</v>
       </c>
       <c r="K199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -9772,10 +9767,10 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B230" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
@@ -9784,22 +9779,22 @@
         <v>15</v>
       </c>
       <c r="E230" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F230" s="2">
-        <v>2148</v>
+        <v>2819</v>
       </c>
       <c r="G230" s="2">
-        <v>1375</v>
+        <v>710</v>
       </c>
       <c r="H230" s="1">
-        <v>1.3684265212</v>
+        <v>0.82489916330000002</v>
       </c>
       <c r="I230" s="1">
-        <v>0.74524465529999995</v>
+        <v>0.53488962340000001</v>
       </c>
       <c r="J230" s="1">
-        <v>2.5127199913</v>
+        <v>1.2721477477000001</v>
       </c>
       <c r="K230">
         <v>1</v>
@@ -9810,10 +9805,10 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B231" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
@@ -9825,19 +9820,19 @@
         <v>18</v>
       </c>
       <c r="F231" s="2">
-        <v>2059</v>
+        <v>2197</v>
       </c>
       <c r="G231" s="2">
-        <v>1309</v>
+        <v>1427</v>
       </c>
       <c r="H231" s="1">
-        <v>1.3676514839</v>
+        <v>0.96573889970000004</v>
       </c>
       <c r="I231" s="1">
-        <v>0.9571321425</v>
+        <v>0.80681882729999999</v>
       </c>
       <c r="J231" s="1">
-        <v>1.9542448720000001</v>
+        <v>1.1559616494</v>
       </c>
       <c r="K231">
         <v>1</v>
@@ -9851,31 +9846,31 @@
         <v>31</v>
       </c>
       <c r="B232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C232" t="s">
         <v>21</v>
       </c>
       <c r="D232" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E232" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F232" s="2">
-        <v>2197</v>
+        <v>537</v>
       </c>
       <c r="G232" s="2">
-        <v>4262</v>
+        <v>139</v>
       </c>
       <c r="H232" s="1">
-        <v>1.3655352964</v>
+        <v>14.579459324</v>
       </c>
       <c r="I232" s="1">
-        <v>1.0270541985999999</v>
+        <v>1.8609389772</v>
       </c>
       <c r="J232" s="1">
-        <v>1.815567911</v>
+        <v>114.22224842999999</v>
       </c>
       <c r="K232">
         <v>1</v>
@@ -9886,34 +9881,34 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B233" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C233" t="s">
         <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F233" s="2">
-        <v>2197</v>
+        <v>2819</v>
       </c>
       <c r="G233" s="2">
-        <v>1427</v>
+        <v>2651</v>
       </c>
       <c r="H233" s="1">
-        <v>1.33249566</v>
+        <v>1.1284722996000001</v>
       </c>
       <c r="I233" s="1">
-        <v>0.87751864329999996</v>
+        <v>0.87248545239999997</v>
       </c>
       <c r="J233" s="1">
-        <v>2.0233697567000002</v>
+        <v>1.4595655749000001</v>
       </c>
       <c r="K233">
         <v>1</v>
@@ -9924,10 +9919,10 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C234" t="s">
         <v>21</v>
@@ -9939,19 +9934,19 @@
         <v>18</v>
       </c>
       <c r="F234" s="2">
-        <v>2188</v>
+        <v>2197</v>
       </c>
       <c r="G234" s="2">
-        <v>4220</v>
+        <v>4262</v>
       </c>
       <c r="H234" s="1">
-        <v>1.3125863516</v>
+        <v>0.93467843240000004</v>
       </c>
       <c r="I234" s="1">
-        <v>0.73981704059999998</v>
+        <v>0.80564209909999995</v>
       </c>
       <c r="J234" s="1">
-        <v>2.3287959535999998</v>
+        <v>1.0843819766</v>
       </c>
       <c r="K234">
         <v>1</v>
@@ -9962,10 +9957,10 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B235" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C235" t="s">
         <v>21</v>
@@ -9974,28 +9969,28 @@
         <v>19</v>
       </c>
       <c r="E235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F235" s="2">
-        <v>2819</v>
+        <v>537</v>
       </c>
       <c r="G235" s="2">
-        <v>2651</v>
+        <v>663</v>
       </c>
       <c r="H235" s="1">
-        <v>1.2757720348999999</v>
+        <v>3.6435167192</v>
       </c>
       <c r="I235" s="1">
-        <v>0.67494800160000001</v>
+        <v>1.5989366357999999</v>
       </c>
       <c r="J235" s="1">
-        <v>2.4114365567</v>
+        <v>8.302526683</v>
       </c>
       <c r="K235">
         <v>1</v>
       </c>
       <c r="L235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -11140,10 +11135,10 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B266" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C266" t="s">
         <v>21</v>
@@ -11152,22 +11147,22 @@
         <v>15</v>
       </c>
       <c r="E266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F266" s="2">
-        <v>2119</v>
+        <v>2819</v>
       </c>
       <c r="G266" s="2">
-        <v>1365</v>
+        <v>710</v>
       </c>
       <c r="H266" s="1">
-        <v>1.2440741185999999</v>
+        <v>0.71225344800000001</v>
       </c>
       <c r="I266" s="1">
-        <v>0.82229498670000001</v>
+        <v>0.38561695029999998</v>
       </c>
       <c r="J266" s="1">
-        <v>1.8821960946</v>
+        <v>1.3155671027</v>
       </c>
       <c r="K266">
         <v>1</v>
@@ -11178,10 +11173,10 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B267" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C267" t="s">
         <v>21</v>
@@ -11190,22 +11185,22 @@
         <v>15</v>
       </c>
       <c r="E267" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F267" s="2">
-        <v>537</v>
+        <v>2197</v>
       </c>
       <c r="G267" s="2">
-        <v>139</v>
+        <v>1427</v>
       </c>
       <c r="H267" s="1">
-        <v>1.2416156810000001</v>
+        <v>1.0527303111999999</v>
       </c>
       <c r="I267" s="1">
-        <v>0.61689159650000003</v>
+        <v>0.73981410820000004</v>
       </c>
       <c r="J267" s="1">
-        <v>2.4989957849</v>
+        <v>1.4979994243999999</v>
       </c>
       <c r="K267">
         <v>1</v>
@@ -11216,34 +11211,34 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B268" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C268" t="s">
         <v>21</v>
       </c>
       <c r="D268" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E268" t="s">
         <v>16</v>
       </c>
       <c r="F268" s="2">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="G268" s="2">
-        <v>657</v>
+        <v>139</v>
       </c>
       <c r="H268" s="1">
-        <v>1.2373831593</v>
+        <v>0.4153779943</v>
       </c>
       <c r="I268" s="1">
-        <v>0.51940385759999996</v>
+        <v>9.9032199200000004E-2</v>
       </c>
       <c r="J268" s="1">
-        <v>2.9478354089000001</v>
+        <v>1.7422502932999999</v>
       </c>
       <c r="K268">
         <v>1</v>
@@ -11254,10 +11249,10 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B269" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C269" t="s">
         <v>21</v>
@@ -11269,19 +11264,19 @@
         <v>17</v>
       </c>
       <c r="F269" s="2">
-        <v>2723</v>
+        <v>2819</v>
       </c>
       <c r="G269" s="2">
-        <v>2615</v>
+        <v>2651</v>
       </c>
       <c r="H269" s="1">
-        <v>1.2356585816000001</v>
+        <v>1.0093257411000001</v>
       </c>
       <c r="I269" s="1">
-        <v>0.78834020490000001</v>
+        <v>0.50676402970000001</v>
       </c>
       <c r="J269" s="1">
-        <v>1.9367934308999999</v>
+        <v>2.0102816931</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -11292,10 +11287,10 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B270" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C270" t="s">
         <v>21</v>
@@ -11307,33 +11302,33 @@
         <v>18</v>
       </c>
       <c r="F270" s="2">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="G270" s="2">
-        <v>4258</v>
+        <v>4262</v>
       </c>
       <c r="H270" s="1">
-        <v>1.1978509657</v>
+        <v>1.3655352964</v>
       </c>
       <c r="I270" s="1">
-        <v>0.29249108270000002</v>
+        <v>1.0270541985999999</v>
       </c>
       <c r="J270" s="1">
-        <v>4.9056091649000004</v>
+        <v>1.815567911</v>
       </c>
       <c r="K270">
         <v>1</v>
       </c>
       <c r="L270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B271" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C271" t="s">
         <v>21</v>
@@ -11342,22 +11337,22 @@
         <v>19</v>
       </c>
       <c r="E271" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F271" s="2">
-        <v>2778</v>
+        <v>537</v>
       </c>
       <c r="G271" s="2">
-        <v>2637</v>
+        <v>663</v>
       </c>
       <c r="H271" s="1">
-        <v>1.1840241716</v>
+        <v>2.6968958810000001</v>
       </c>
       <c r="I271" s="1">
-        <v>0.73404537739999998</v>
+        <v>0.52357501910000004</v>
       </c>
       <c r="J271" s="1">
-        <v>1.9098454704000001</v>
+        <v>13.891509578999999</v>
       </c>
       <c r="K271">
         <v>1</v>
@@ -12508,34 +12503,34 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B302" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C302" t="s">
         <v>21</v>
       </c>
       <c r="D302" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F302" s="2">
-        <v>2119</v>
+        <v>2723</v>
       </c>
       <c r="G302" s="2">
-        <v>4188</v>
+        <v>688</v>
       </c>
       <c r="H302" s="1">
-        <v>1.1738561755000001</v>
+        <v>1.0994478384999999</v>
       </c>
       <c r="I302" s="1">
-        <v>0.85823220140000001</v>
+        <v>0.4708573694</v>
       </c>
       <c r="J302" s="1">
-        <v>1.6055542061999999</v>
+        <v>2.5672010852999998</v>
       </c>
       <c r="K302">
         <v>1</v>
@@ -12546,34 +12541,34 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B303" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C303" t="s">
         <v>21</v>
       </c>
       <c r="D303" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E303" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F303" s="2">
-        <v>531</v>
+        <v>2084</v>
       </c>
       <c r="G303" s="2">
-        <v>659</v>
+        <v>1343</v>
       </c>
       <c r="H303" s="1">
-        <v>1.1546730773</v>
+        <v>1.5571604146</v>
       </c>
       <c r="I303" s="1">
-        <v>0.41890374139999997</v>
+        <v>0.92787704959999995</v>
       </c>
       <c r="J303" s="1">
-        <v>3.1827596262000002</v>
+        <v>2.6132218247000001</v>
       </c>
       <c r="K303">
         <v>1</v>
@@ -12584,10 +12579,10 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B304" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C304" t="s">
         <v>21</v>
@@ -12596,22 +12591,22 @@
         <v>15</v>
       </c>
       <c r="E304" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F304" s="2">
-        <v>2801</v>
+        <v>515</v>
       </c>
       <c r="G304" s="2">
-        <v>705</v>
+        <v>132</v>
       </c>
       <c r="H304" s="1">
-        <v>1.1340230833</v>
+        <v>4.4291724723000003</v>
       </c>
       <c r="I304" s="1">
-        <v>0.4110461916</v>
+        <v>0.55815964979999999</v>
       </c>
       <c r="J304" s="1">
-        <v>3.1286224750999998</v>
+        <v>35.146877414000002</v>
       </c>
       <c r="K304">
         <v>1</v>
@@ -12622,10 +12617,10 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B305" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C305" t="s">
         <v>21</v>
@@ -12637,19 +12632,19 @@
         <v>17</v>
       </c>
       <c r="F305" s="2">
-        <v>2819</v>
+        <v>2723</v>
       </c>
       <c r="G305" s="2">
-        <v>2651</v>
+        <v>2615</v>
       </c>
       <c r="H305" s="1">
-        <v>1.1284722996000001</v>
+        <v>1.2356585816000001</v>
       </c>
       <c r="I305" s="1">
-        <v>0.87248545239999997</v>
+        <v>0.78834020490000001</v>
       </c>
       <c r="J305" s="1">
-        <v>1.4595655749000001</v>
+        <v>1.9367934308999999</v>
       </c>
       <c r="K305">
         <v>1</v>
@@ -12663,7 +12658,7 @@
         <v>34</v>
       </c>
       <c r="B306" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C306" t="s">
         <v>21</v>
@@ -12675,19 +12670,19 @@
         <v>18</v>
       </c>
       <c r="F306" s="2">
-        <v>2148</v>
+        <v>2084</v>
       </c>
       <c r="G306" s="2">
-        <v>4207</v>
+        <v>4160</v>
       </c>
       <c r="H306" s="1">
-        <v>1.1172872534</v>
+        <v>1.0389988886999999</v>
       </c>
       <c r="I306" s="1">
-        <v>0.72507984879999998</v>
+        <v>0.71321803520000004</v>
       </c>
       <c r="J306" s="1">
-        <v>1.7216459797999999</v>
+        <v>1.5135886047</v>
       </c>
       <c r="K306">
         <v>1</v>
@@ -12698,34 +12693,34 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B307" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C307" t="s">
         <v>21</v>
       </c>
       <c r="D307" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E307" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F307" s="2">
-        <v>2185</v>
+        <v>515</v>
       </c>
       <c r="G307" s="2">
-        <v>1412</v>
+        <v>657</v>
       </c>
       <c r="H307" s="1">
-        <v>1.1137974291999999</v>
+        <v>1.2373831593</v>
       </c>
       <c r="I307" s="1">
-        <v>0.60510743160000002</v>
+        <v>0.51940385759999996</v>
       </c>
       <c r="J307" s="1">
-        <v>2.0501230832999999</v>
+        <v>2.9478354089000001</v>
       </c>
       <c r="K307">
         <v>1</v>
@@ -13874,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>34</v>
       </c>
@@ -13888,25 +13883,25 @@
         <v>15</v>
       </c>
       <c r="E338" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F338" s="2">
-        <v>526</v>
+        <v>2778</v>
       </c>
       <c r="G338" s="2">
-        <v>137</v>
+        <v>705</v>
       </c>
       <c r="H338" s="1">
-        <v>40910.897242999999</v>
+        <v>0.77217537960000004</v>
       </c>
       <c r="I338" s="1">
-        <v>15229.63415</v>
+        <v>0.31617330090000001</v>
       </c>
       <c r="J338" s="1">
-        <v>109897.68347</v>
+        <v>1.8858480941</v>
       </c>
       <c r="K338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L338">
         <v>0</v>
@@ -13917,7 +13912,7 @@
         <v>34</v>
       </c>
       <c r="B339" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C339" t="s">
         <v>21</v>
@@ -13926,22 +13921,22 @@
         <v>15</v>
       </c>
       <c r="E339" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F339" s="2">
-        <v>2723</v>
+        <v>2148</v>
       </c>
       <c r="G339" s="2">
-        <v>688</v>
+        <v>1375</v>
       </c>
       <c r="H339" s="1">
-        <v>1.0994478384999999</v>
+        <v>1.3684265212</v>
       </c>
       <c r="I339" s="1">
-        <v>0.4708573694</v>
+        <v>0.74524465529999995</v>
       </c>
       <c r="J339" s="1">
-        <v>2.5672010852999998</v>
+        <v>2.5127199913</v>
       </c>
       <c r="K339">
         <v>1</v>
@@ -13952,10 +13947,10 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B340" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C340" t="s">
         <v>21</v>
@@ -13964,25 +13959,25 @@
         <v>15</v>
       </c>
       <c r="E340" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F340" s="2">
-        <v>2134</v>
+        <v>526</v>
       </c>
       <c r="G340" s="2">
-        <v>1372</v>
+        <v>137</v>
       </c>
       <c r="H340" s="1">
-        <v>1.0986539992</v>
+        <v>40910.897242999999</v>
       </c>
       <c r="I340" s="1">
-        <v>0.76711564119999998</v>
+        <v>15229.63415</v>
       </c>
       <c r="J340" s="1">
-        <v>1.5734793364999999</v>
+        <v>109897.68347</v>
       </c>
       <c r="K340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L340">
         <v>0</v>
@@ -13990,10 +13985,10 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B341" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C341" t="s">
         <v>21</v>
@@ -14002,22 +13997,22 @@
         <v>19</v>
       </c>
       <c r="E341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F341" s="2">
-        <v>2059</v>
+        <v>2778</v>
       </c>
       <c r="G341" s="2">
-        <v>4090</v>
+        <v>2637</v>
       </c>
       <c r="H341" s="1">
-        <v>1.0938862027</v>
+        <v>1.1840241716</v>
       </c>
       <c r="I341" s="1">
-        <v>0.83660336280000003</v>
+        <v>0.73404537739999998</v>
       </c>
       <c r="J341" s="1">
-        <v>1.4302919132</v>
+        <v>1.9098454704000001</v>
       </c>
       <c r="K341">
         <v>1</v>
@@ -14028,34 +14023,34 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B342" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C342" t="s">
         <v>21</v>
       </c>
       <c r="D342" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E342" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F342" s="2">
-        <v>2804</v>
+        <v>2148</v>
       </c>
       <c r="G342" s="2">
-        <v>704</v>
+        <v>4207</v>
       </c>
       <c r="H342" s="1">
-        <v>1.0780362622999999</v>
+        <v>1.1172872534</v>
       </c>
       <c r="I342" s="1">
-        <v>0.33484494349999999</v>
+        <v>0.72507984879999998</v>
       </c>
       <c r="J342" s="1">
-        <v>3.4707472979</v>
+        <v>1.7216459797999999</v>
       </c>
       <c r="K342">
         <v>1</v>
@@ -14066,10 +14061,10 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B343" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C343" t="s">
         <v>21</v>
@@ -14078,22 +14073,22 @@
         <v>19</v>
       </c>
       <c r="E343" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F343" s="2">
-        <v>2147</v>
+        <v>526</v>
       </c>
       <c r="G343" s="2">
-        <v>4186</v>
+        <v>657</v>
       </c>
       <c r="H343" s="1">
-        <v>1.0752809857000001</v>
+        <v>0.48287238850000003</v>
       </c>
       <c r="I343" s="1">
-        <v>0.77006556039999996</v>
+        <v>0.1441414949</v>
       </c>
       <c r="J343" s="1">
-        <v>1.5014685213000001</v>
+        <v>1.6176170766</v>
       </c>
       <c r="K343">
         <v>1</v>
@@ -15016,10 +15011,10 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B368" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C368" t="s">
         <v>21</v>
@@ -15028,31 +15023,31 @@
         <v>15</v>
       </c>
       <c r="E368" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F368" s="2">
-        <v>2158</v>
+        <v>2819</v>
       </c>
       <c r="G368" s="2">
-        <v>1394</v>
+        <v>710</v>
       </c>
       <c r="H368" s="1">
-        <v>1.0710187046999999</v>
+        <v>2744900.8613999998</v>
       </c>
       <c r="I368" s="1">
-        <v>0.73306074290000001</v>
+        <v>352373.91091999999</v>
       </c>
       <c r="J368" s="1">
-        <v>1.5647831054000001</v>
+        <v>21382061.796999998</v>
       </c>
       <c r="K368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>37</v>
       </c>
@@ -15066,22 +15061,22 @@
         <v>15</v>
       </c>
       <c r="E369" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F369" s="2">
-        <v>2819</v>
+        <v>2196</v>
       </c>
       <c r="G369" s="2">
-        <v>710</v>
+        <v>1425</v>
       </c>
       <c r="H369" s="1">
-        <v>2744900.8613999998</v>
+        <v>5924725.0214</v>
       </c>
       <c r="I369" s="1">
-        <v>352373.91091999999</v>
+        <v>1902616.0375999999</v>
       </c>
       <c r="J369" s="1">
-        <v>21382061.796999998</v>
+        <v>18449527.328000002</v>
       </c>
       <c r="K369">
         <v>0</v>
@@ -15090,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>37</v>
       </c>
@@ -15104,31 +15099,31 @@
         <v>15</v>
       </c>
       <c r="E370" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F370" s="2">
-        <v>2196</v>
+        <v>537</v>
       </c>
       <c r="G370" s="2">
-        <v>1425</v>
+        <v>139</v>
       </c>
       <c r="H370" s="1">
-        <v>5924725.0214</v>
+        <v>1.2416156810000001</v>
       </c>
       <c r="I370" s="1">
-        <v>1902616.0375999999</v>
+        <v>0.61689159650000003</v>
       </c>
       <c r="J370" s="1">
-        <v>18449527.328000002</v>
+        <v>2.4989957849</v>
       </c>
       <c r="K370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L370">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>37</v>
       </c>
@@ -15142,22 +15137,22 @@
         <v>19</v>
       </c>
       <c r="E371" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F371" s="2">
-        <v>537</v>
+        <v>2819</v>
       </c>
       <c r="G371" s="2">
-        <v>663</v>
+        <v>2651</v>
       </c>
       <c r="H371" s="1">
-        <v>4.3509295000000001E-8</v>
+        <v>2612431.9974000002</v>
       </c>
       <c r="I371" s="1">
-        <v>1.1761022999999999E-8</v>
+        <v>381302.94455999997</v>
       </c>
       <c r="J371" s="1">
-        <v>1.6096038999999999E-7</v>
+        <v>17898631.622000001</v>
       </c>
       <c r="K371">
         <v>0</v>
@@ -15166,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>37</v>
       </c>
@@ -15180,25 +15175,25 @@
         <v>19</v>
       </c>
       <c r="E372" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F372" s="2">
-        <v>2819</v>
+        <v>2196</v>
       </c>
       <c r="G372" s="2">
-        <v>2651</v>
+        <v>4258</v>
       </c>
       <c r="H372" s="1">
-        <v>2612431.9974000002</v>
+        <v>1.1978509657</v>
       </c>
       <c r="I372" s="1">
-        <v>381302.94455999997</v>
+        <v>0.29249108270000002</v>
       </c>
       <c r="J372" s="1">
-        <v>17898631.622000001</v>
+        <v>4.9056091649000004</v>
       </c>
       <c r="K372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L372">
         <v>0</v>
@@ -15206,10 +15201,10 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B373" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C373" t="s">
         <v>21</v>
@@ -15221,22 +15216,22 @@
         <v>16</v>
       </c>
       <c r="F373" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G373" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="H373" s="1">
-        <v>1.0606376657000001</v>
+        <v>4.3509295000000001E-8</v>
       </c>
       <c r="I373" s="1">
-        <v>0.37093373680000002</v>
+        <v>1.1761022999999999E-8</v>
       </c>
       <c r="J373" s="1">
-        <v>3.0327580000999999</v>
+        <v>1.6096038999999999E-7</v>
       </c>
       <c r="K373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L373">
         <v>0</v>
@@ -16154,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>37</v>
       </c>
@@ -16168,22 +16163,22 @@
         <v>15</v>
       </c>
       <c r="E398" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F398" s="2">
-        <v>536</v>
+        <v>2819</v>
       </c>
       <c r="G398" s="2">
-        <v>138</v>
+        <v>710</v>
       </c>
       <c r="H398" s="1">
-        <v>5009139.1399999997</v>
+        <v>519958.07309000002</v>
       </c>
       <c r="I398" s="1">
-        <v>678496.54347999999</v>
+        <v>163048.77854999999</v>
       </c>
       <c r="J398" s="1">
-        <v>36980991.523999996</v>
+        <v>1658132.0031000001</v>
       </c>
       <c r="K398">
         <v>0</v>
@@ -16192,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>37</v>
       </c>
@@ -16206,25 +16201,25 @@
         <v>15</v>
       </c>
       <c r="E399" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F399" s="2">
-        <v>2819</v>
+        <v>2194</v>
       </c>
       <c r="G399" s="2">
-        <v>710</v>
+        <v>1422</v>
       </c>
       <c r="H399" s="1">
-        <v>519958.07309000002</v>
+        <v>1.7541805613000001</v>
       </c>
       <c r="I399" s="1">
-        <v>163048.77854999999</v>
+        <v>0.54729898180000003</v>
       </c>
       <c r="J399" s="1">
-        <v>1658132.0031000001</v>
+        <v>5.6224285881</v>
       </c>
       <c r="K399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L399">
         <v>0</v>
@@ -16232,10 +16227,10 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B400" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C400" t="s">
         <v>21</v>
@@ -16244,25 +16239,25 @@
         <v>15</v>
       </c>
       <c r="E400" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F400" s="2">
-        <v>2197</v>
+        <v>536</v>
       </c>
       <c r="G400" s="2">
-        <v>1427</v>
+        <v>138</v>
       </c>
       <c r="H400" s="1">
-        <v>1.0527303111999999</v>
+        <v>5009139.1399999997</v>
       </c>
       <c r="I400" s="1">
-        <v>0.73981410820000004</v>
+        <v>678496.54347999999</v>
       </c>
       <c r="J400" s="1">
-        <v>1.4979994243999999</v>
+        <v>36980991.523999996</v>
       </c>
       <c r="K400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L400">
         <v>0</v>
@@ -16270,10 +16265,10 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B401" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C401" t="s">
         <v>21</v>
@@ -16282,22 +16277,22 @@
         <v>19</v>
       </c>
       <c r="E401" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F401" s="2">
-        <v>2084</v>
+        <v>2819</v>
       </c>
       <c r="G401" s="2">
-        <v>4160</v>
+        <v>2651</v>
       </c>
       <c r="H401" s="1">
-        <v>1.0389988886999999</v>
+        <v>0.69169684819999999</v>
       </c>
       <c r="I401" s="1">
-        <v>0.71321803520000004</v>
+        <v>0.1367318384</v>
       </c>
       <c r="J401" s="1">
-        <v>1.5135886047</v>
+        <v>3.4991450095999999</v>
       </c>
       <c r="K401">
         <v>1</v>
@@ -16308,34 +16303,34 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B402" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C402" t="s">
         <v>21</v>
       </c>
       <c r="D402" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E402" t="s">
         <v>18</v>
       </c>
       <c r="F402" s="2">
-        <v>2097</v>
+        <v>2194</v>
       </c>
       <c r="G402" s="2">
-        <v>1347</v>
+        <v>4258</v>
       </c>
       <c r="H402" s="1">
-        <v>1.0140482784</v>
+        <v>1.8975667490999999</v>
       </c>
       <c r="I402" s="1">
-        <v>0.66558373540000004</v>
+        <v>0.75606249560000005</v>
       </c>
       <c r="J402" s="1">
-        <v>1.5449504789999999</v>
+        <v>4.7625157813000003</v>
       </c>
       <c r="K402">
         <v>1</v>
@@ -16346,10 +16341,10 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B403" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C403" t="s">
         <v>21</v>
@@ -16358,22 +16353,22 @@
         <v>19</v>
       </c>
       <c r="E403" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F403" s="2">
-        <v>2185</v>
+        <v>536</v>
       </c>
       <c r="G403" s="2">
-        <v>4239</v>
+        <v>662</v>
       </c>
       <c r="H403" s="1">
-        <v>1.010719226</v>
+        <v>5.2215718708000001</v>
       </c>
       <c r="I403" s="1">
-        <v>0.6004550917</v>
+        <v>0.3212408303</v>
       </c>
       <c r="J403" s="1">
-        <v>1.7012985116999999</v>
+        <v>84.873435236999995</v>
       </c>
       <c r="K403">
         <v>1</v>
@@ -17522,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>37</v>
       </c>
@@ -17536,25 +17531,25 @@
         <v>15</v>
       </c>
       <c r="E434" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F434" s="2">
-        <v>537</v>
+        <v>2818</v>
       </c>
       <c r="G434" s="2">
-        <v>139</v>
+        <v>710</v>
       </c>
       <c r="H434" s="1">
-        <v>2148058.3697000002</v>
+        <v>0.5380713184</v>
       </c>
       <c r="I434" s="1">
-        <v>461242.35181999998</v>
+        <v>4.9531929099999997E-2</v>
       </c>
       <c r="J434" s="1">
-        <v>10003753.431</v>
+        <v>5.8451336067000002</v>
       </c>
       <c r="K434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L434">
         <v>0</v>
@@ -17562,34 +17557,34 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B435" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C435" t="s">
         <v>21</v>
       </c>
       <c r="D435" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E435" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F435" s="2">
-        <v>2819</v>
+        <v>2195</v>
       </c>
       <c r="G435" s="2">
-        <v>2651</v>
+        <v>1422</v>
       </c>
       <c r="H435" s="1">
-        <v>1.0093257411000001</v>
+        <v>0.72647331380000002</v>
       </c>
       <c r="I435" s="1">
-        <v>0.50676402970000001</v>
+        <v>0.21058840570000001</v>
       </c>
       <c r="J435" s="1">
-        <v>2.0102816931</v>
+        <v>2.5061373811999998</v>
       </c>
       <c r="K435">
         <v>1</v>
@@ -17600,16 +17595,16 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B436" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C436" t="s">
         <v>21</v>
       </c>
       <c r="D436" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E436" t="s">
         <v>16</v>
@@ -17618,25 +17613,25 @@
         <v>537</v>
       </c>
       <c r="G436" s="2">
-        <v>663</v>
+        <v>139</v>
       </c>
       <c r="H436" s="1">
-        <v>1.0029665271999999</v>
+        <v>2148058.3697000002</v>
       </c>
       <c r="I436" s="1">
-        <v>0.82286011260000003</v>
+        <v>461242.35181999998</v>
       </c>
       <c r="J436" s="1">
-        <v>1.2224943697999999</v>
+        <v>10003753.431</v>
       </c>
       <c r="K436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L436">
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>37</v>
       </c>
@@ -17650,25 +17645,25 @@
         <v>19</v>
       </c>
       <c r="E437" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F437" s="2">
-        <v>537</v>
+        <v>2818</v>
       </c>
       <c r="G437" s="2">
-        <v>663</v>
+        <v>2651</v>
       </c>
       <c r="H437" s="1">
-        <v>2038467.7350000001</v>
+        <v>1.7143065207999999</v>
       </c>
       <c r="I437" s="1">
-        <v>492013.26815000002</v>
+        <v>0.1500028555</v>
       </c>
       <c r="J437" s="1">
-        <v>8445607.0106000006</v>
+        <v>19.591939344</v>
       </c>
       <c r="K437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L437">
         <v>0</v>
@@ -17676,10 +17671,10 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B438" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C438" t="s">
         <v>21</v>
@@ -17688,22 +17683,22 @@
         <v>19</v>
       </c>
       <c r="E438" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F438" s="2">
-        <v>2804</v>
+        <v>2195</v>
       </c>
       <c r="G438" s="2">
-        <v>2643</v>
+        <v>4259</v>
       </c>
       <c r="H438" s="1">
-        <v>0.99999614650000002</v>
+        <v>1.5882348749999999</v>
       </c>
       <c r="I438" s="1">
-        <v>0.49522419020000003</v>
+        <v>0.47903008619999998</v>
       </c>
       <c r="J438" s="1">
-        <v>2.0192719028999999</v>
+        <v>5.2658279523999996</v>
       </c>
       <c r="K438">
         <v>1</v>
@@ -17714,37 +17709,37 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B439" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C439" t="s">
         <v>21</v>
       </c>
       <c r="D439" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E439" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F439" s="2">
-        <v>2818</v>
+        <v>537</v>
       </c>
       <c r="G439" s="2">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="H439" s="1">
-        <v>0.9926802227</v>
+        <v>2038467.7350000001</v>
       </c>
       <c r="I439" s="1">
-        <v>0.1001438533</v>
+        <v>492013.26815000002</v>
       </c>
       <c r="J439" s="1">
-        <v>9.8399851000999998</v>
+        <v>8445607.0106000006</v>
       </c>
       <c r="K439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L439">
         <v>0</v>
@@ -18892,34 +18887,34 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B470" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C470" t="s">
         <v>21</v>
       </c>
       <c r="D470" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E470" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F470" s="2">
-        <v>2197</v>
+        <v>2818</v>
       </c>
       <c r="G470" s="2">
-        <v>4262</v>
+        <v>710</v>
       </c>
       <c r="H470" s="1">
-        <v>0.9839659087</v>
+        <v>0.9926802227</v>
       </c>
       <c r="I470" s="1">
-        <v>0.71013821850000003</v>
+        <v>0.1001438533</v>
       </c>
       <c r="J470" s="1">
-        <v>1.3633809367</v>
+        <v>9.8399851000999998</v>
       </c>
       <c r="K470">
         <v>1</v>
@@ -18930,10 +18925,10 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B471" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C471" t="s">
         <v>21</v>
@@ -18945,19 +18940,19 @@
         <v>18</v>
       </c>
       <c r="F471" s="2">
-        <v>2197</v>
+        <v>2188</v>
       </c>
       <c r="G471" s="2">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="H471" s="1">
-        <v>0.96573889970000004</v>
+        <v>0.84174204239999995</v>
       </c>
       <c r="I471" s="1">
-        <v>0.80681882729999999</v>
+        <v>0.39739000499999999</v>
       </c>
       <c r="J471" s="1">
-        <v>1.1559616494</v>
+        <v>1.7829579431</v>
       </c>
       <c r="K471">
         <v>1</v>
@@ -18968,34 +18963,34 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B472" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C472" t="s">
         <v>21</v>
       </c>
       <c r="D472" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E472" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F472" s="2">
-        <v>2648</v>
+        <v>537</v>
       </c>
       <c r="G472" s="2">
-        <v>2552</v>
+        <v>139</v>
       </c>
       <c r="H472" s="1">
-        <v>0.96373582550000003</v>
+        <v>0.96293992399999995</v>
       </c>
       <c r="I472" s="1">
-        <v>0.72415951209999996</v>
+        <v>0.71575338050000004</v>
       </c>
       <c r="J472" s="1">
-        <v>1.2825720380000001</v>
+        <v>1.2954927248000001</v>
       </c>
       <c r="K472">
         <v>1</v>
@@ -19015,34 +19010,34 @@
         <v>21</v>
       </c>
       <c r="D473" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E473" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F473" s="2">
-        <v>537</v>
+        <v>2818</v>
       </c>
       <c r="G473" s="2">
-        <v>139</v>
+        <v>2651</v>
       </c>
       <c r="H473" s="1">
-        <v>0.96293992399999995</v>
+        <v>693680.42003000004</v>
       </c>
       <c r="I473" s="1">
-        <v>0.71575338050000004</v>
+        <v>206723.53945000001</v>
       </c>
       <c r="J473" s="1">
-        <v>1.2954927248000001</v>
+        <v>2327710.3632999999</v>
       </c>
       <c r="K473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L473">
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>41</v>
       </c>
@@ -19056,36 +19051,36 @@
         <v>19</v>
       </c>
       <c r="E474" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F474" s="2">
-        <v>2818</v>
+        <v>2188</v>
       </c>
       <c r="G474" s="2">
-        <v>2651</v>
+        <v>4253</v>
       </c>
       <c r="H474" s="1">
-        <v>693680.42003000004</v>
+        <v>2.7116786446000001</v>
       </c>
       <c r="I474" s="1">
-        <v>206723.53945000001</v>
+        <v>1.2044427167</v>
       </c>
       <c r="J474" s="1">
-        <v>2327710.3632999999</v>
+        <v>6.1050649976000004</v>
       </c>
       <c r="K474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B475" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C475" t="s">
         <v>21</v>
@@ -19094,22 +19089,22 @@
         <v>19</v>
       </c>
       <c r="E475" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F475" s="2">
-        <v>2805</v>
+        <v>537</v>
       </c>
       <c r="G475" s="2">
-        <v>2645</v>
+        <v>663</v>
       </c>
       <c r="H475" s="1">
-        <v>0.96097504050000004</v>
+        <v>1.0029665271999999</v>
       </c>
       <c r="I475" s="1">
-        <v>0.44823806059999999</v>
+        <v>0.82286011260000003</v>
       </c>
       <c r="J475" s="1">
-        <v>2.0602289487999998</v>
+        <v>1.2224943697999999</v>
       </c>
       <c r="K475">
         <v>1</v>
@@ -20258,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>41</v>
       </c>
@@ -20272,25 +20267,25 @@
         <v>15</v>
       </c>
       <c r="E506" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F506" s="2">
-        <v>534</v>
+        <v>2804</v>
       </c>
       <c r="G506" s="2">
-        <v>139</v>
+        <v>704</v>
       </c>
       <c r="H506" s="1">
-        <v>23145.911243999999</v>
+        <v>1.0780362622999999</v>
       </c>
       <c r="I506" s="1">
-        <v>7500.1182556000003</v>
+        <v>0.33484494349999999</v>
       </c>
       <c r="J506" s="1">
-        <v>71429.968041999993</v>
+        <v>3.4707472979</v>
       </c>
       <c r="K506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L506">
         <v>0</v>
@@ -20298,10 +20293,10 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B507" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C507" t="s">
         <v>21</v>
@@ -20313,19 +20308,19 @@
         <v>18</v>
       </c>
       <c r="F507" s="2">
-        <v>2111</v>
+        <v>2134</v>
       </c>
       <c r="G507" s="2">
-        <v>1337</v>
+        <v>1372</v>
       </c>
       <c r="H507" s="1">
-        <v>0.9491088956</v>
+        <v>1.0986539992</v>
       </c>
       <c r="I507" s="1">
-        <v>0.68105009139999995</v>
+        <v>0.76711564119999998</v>
       </c>
       <c r="J507" s="1">
-        <v>1.3226746566000001</v>
+        <v>1.5734793364999999</v>
       </c>
       <c r="K507">
         <v>1</v>
@@ -20336,10 +20331,10 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B508" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C508" t="s">
         <v>21</v>
@@ -20351,22 +20346,22 @@
         <v>16</v>
       </c>
       <c r="F508" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G508" s="2">
         <v>139</v>
       </c>
       <c r="H508" s="1">
-        <v>0.9395033196</v>
+        <v>23145.911243999999</v>
       </c>
       <c r="I508" s="1">
-        <v>0.66952964159999995</v>
+        <v>7500.1182556000003</v>
       </c>
       <c r="J508" s="1">
-        <v>1.3183381776</v>
+        <v>71429.968041999993</v>
       </c>
       <c r="K508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L508">
         <v>0</v>
@@ -20374,10 +20369,10 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B509" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C509" t="s">
         <v>21</v>
@@ -20386,22 +20381,22 @@
         <v>19</v>
       </c>
       <c r="E509" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F509" s="2">
-        <v>2197</v>
+        <v>2804</v>
       </c>
       <c r="G509" s="2">
-        <v>4262</v>
+        <v>2643</v>
       </c>
       <c r="H509" s="1">
-        <v>0.93467843240000004</v>
+        <v>0.99999614650000002</v>
       </c>
       <c r="I509" s="1">
-        <v>0.80564209909999995</v>
+        <v>0.49522419020000003</v>
       </c>
       <c r="J509" s="1">
-        <v>1.0843819766</v>
+        <v>2.0192719028999999</v>
       </c>
       <c r="K509">
         <v>1</v>
@@ -20412,10 +20407,10 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B510" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C510" t="s">
         <v>21</v>
@@ -20424,22 +20419,22 @@
         <v>19</v>
       </c>
       <c r="E510" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F510" s="2">
-        <v>535</v>
+        <v>2134</v>
       </c>
       <c r="G510" s="2">
-        <v>662</v>
+        <v>4187</v>
       </c>
       <c r="H510" s="1">
-        <v>0.92576244470000002</v>
+        <v>0.85176916749999998</v>
       </c>
       <c r="I510" s="1">
-        <v>0.2311320949</v>
+        <v>0.6489134567</v>
       </c>
       <c r="J510" s="1">
-        <v>3.7079926274999999</v>
+        <v>1.1180392504000001</v>
       </c>
       <c r="K510">
         <v>1</v>
@@ -20450,34 +20445,34 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B511" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C511" t="s">
         <v>21</v>
       </c>
       <c r="D511" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E511" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F511" s="2">
-        <v>2749</v>
+        <v>534</v>
       </c>
       <c r="G511" s="2">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="H511" s="1">
-        <v>0.9000384333</v>
+        <v>0.39291156109999997</v>
       </c>
       <c r="I511" s="1">
-        <v>0.45509747</v>
+        <v>0.10901051990000001</v>
       </c>
       <c r="J511" s="1">
-        <v>1.779990518</v>
+        <v>1.4161889606</v>
       </c>
       <c r="K511">
         <v>1</v>
@@ -22768,10 +22763,10 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B572" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C572" t="s">
         <v>21</v>
@@ -22780,22 +22775,22 @@
         <v>15</v>
       </c>
       <c r="E572" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F572" s="2">
-        <v>530</v>
+        <v>2817</v>
       </c>
       <c r="G572" s="2">
-        <v>136</v>
+        <v>709</v>
       </c>
       <c r="H572" s="1">
-        <v>0.89315992909999997</v>
+        <v>1.6515237266</v>
       </c>
       <c r="I572" s="1">
-        <v>0.23242117079999999</v>
+        <v>0.2069748401</v>
       </c>
       <c r="J572" s="1">
-        <v>3.4322805287000002</v>
+        <v>13.178078158</v>
       </c>
       <c r="K572">
         <v>1</v>
@@ -22806,34 +22801,34 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B573" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C573" t="s">
         <v>21</v>
       </c>
       <c r="D573" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E573" t="s">
         <v>18</v>
       </c>
       <c r="F573" s="2">
-        <v>2158</v>
+        <v>2193</v>
       </c>
       <c r="G573" s="2">
-        <v>4190</v>
+        <v>1424</v>
       </c>
       <c r="H573" s="1">
-        <v>0.88587716039999997</v>
+        <v>1.5610010845</v>
       </c>
       <c r="I573" s="1">
-        <v>0.65305943060000005</v>
+        <v>0.53340958179999998</v>
       </c>
       <c r="J573" s="1">
-        <v>1.2016951390999999</v>
+        <v>4.5682051256999996</v>
       </c>
       <c r="K573">
         <v>1</v>
@@ -22844,10 +22839,10 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B574" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C574" t="s">
         <v>21</v>
@@ -22856,22 +22851,22 @@
         <v>15</v>
       </c>
       <c r="E574" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F574" s="2">
-        <v>2158</v>
+        <v>537</v>
       </c>
       <c r="G574" s="2">
-        <v>1391</v>
+        <v>139</v>
       </c>
       <c r="H574" s="1">
-        <v>0.88586770349999999</v>
+        <v>0.9395033196</v>
       </c>
       <c r="I574" s="1">
-        <v>0.58314562240000001</v>
+        <v>0.66952964159999995</v>
       </c>
       <c r="J574" s="1">
-        <v>1.3457386251000001</v>
+        <v>1.3183381776</v>
       </c>
       <c r="K574">
         <v>1</v>
@@ -22880,7 +22875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>44</v>
       </c>
@@ -22894,25 +22889,25 @@
         <v>19</v>
       </c>
       <c r="E575" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F575" s="2">
-        <v>537</v>
+        <v>2817</v>
       </c>
       <c r="G575" s="2">
-        <v>663</v>
+        <v>2651</v>
       </c>
       <c r="H575" s="1">
-        <v>3.5326839000000001E-6</v>
+        <v>0.59040991880000004</v>
       </c>
       <c r="I575" s="1">
-        <v>4.9201609000000004E-7</v>
+        <v>0.2271442216</v>
       </c>
       <c r="J575" s="1">
-        <v>2.5364700000000001E-5</v>
+        <v>1.5346367599999999</v>
       </c>
       <c r="K575">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L575">
         <v>0</v>
@@ -22920,34 +22915,34 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B576" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C576" t="s">
         <v>21</v>
       </c>
       <c r="D576" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E576" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F576" s="2">
-        <v>2791</v>
+        <v>2193</v>
       </c>
       <c r="G576" s="2">
-        <v>683</v>
+        <v>4253</v>
       </c>
       <c r="H576" s="1">
-        <v>0.8769050464</v>
+        <v>1.4352265825999999</v>
       </c>
       <c r="I576" s="1">
-        <v>0.42173757719999999</v>
+        <v>0.61515992149999998</v>
       </c>
       <c r="J576" s="1">
-        <v>1.8233197656</v>
+        <v>3.3485200699000002</v>
       </c>
       <c r="K576">
         <v>1</v>
@@ -22958,10 +22953,10 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B577" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C577" t="s">
         <v>21</v>
@@ -22970,25 +22965,25 @@
         <v>19</v>
       </c>
       <c r="E577" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F577" s="2">
-        <v>2134</v>
+        <v>537</v>
       </c>
       <c r="G577" s="2">
-        <v>4187</v>
+        <v>663</v>
       </c>
       <c r="H577" s="1">
-        <v>0.85176916749999998</v>
+        <v>3.5326839000000001E-6</v>
       </c>
       <c r="I577" s="1">
-        <v>0.6489134567</v>
+        <v>4.9201609000000004E-7</v>
       </c>
       <c r="J577" s="1">
-        <v>1.1180392504000001</v>
+        <v>2.5364700000000001E-5</v>
       </c>
       <c r="K577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L577">
         <v>0</v>
@@ -24134,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>47</v>
       </c>
@@ -24148,60 +24143,60 @@
         <v>15</v>
       </c>
       <c r="E608" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F608" s="2">
-        <v>535</v>
+        <v>2814</v>
       </c>
       <c r="G608" s="2">
-        <v>138</v>
+        <v>708</v>
       </c>
       <c r="H608" s="1">
-        <v>35205.697411000001</v>
+        <v>8.0070926475000004</v>
       </c>
       <c r="I608" s="1">
-        <v>11018.657458</v>
+        <v>1.0161864478</v>
       </c>
       <c r="J608" s="1">
-        <v>112485.67577</v>
+        <v>63.092292567000001</v>
       </c>
       <c r="K608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B609" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C609" t="s">
         <v>21</v>
       </c>
       <c r="D609" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E609" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F609" s="2">
-        <v>2801</v>
+        <v>2158</v>
       </c>
       <c r="G609" s="2">
-        <v>2643</v>
+        <v>1394</v>
       </c>
       <c r="H609" s="1">
-        <v>0.84290236750000003</v>
+        <v>1.0710187046999999</v>
       </c>
       <c r="I609" s="1">
-        <v>0.37733617110000001</v>
+        <v>0.73306074290000001</v>
       </c>
       <c r="J609" s="1">
-        <v>1.8828950299</v>
+        <v>1.5647831054000001</v>
       </c>
       <c r="K609">
         <v>1</v>
@@ -24212,10 +24207,10 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B610" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C610" t="s">
         <v>21</v>
@@ -24224,25 +24219,25 @@
         <v>15</v>
       </c>
       <c r="E610" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F610" s="2">
-        <v>2188</v>
+        <v>535</v>
       </c>
       <c r="G610" s="2">
-        <v>1418</v>
+        <v>138</v>
       </c>
       <c r="H610" s="1">
-        <v>0.84174204239999995</v>
+        <v>35205.697411000001</v>
       </c>
       <c r="I610" s="1">
-        <v>0.39739000499999999</v>
+        <v>11018.657458</v>
       </c>
       <c r="J610" s="1">
-        <v>1.7829579431</v>
+        <v>112485.67577</v>
       </c>
       <c r="K610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L610">
         <v>0</v>
@@ -24250,34 +24245,34 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B611" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C611" t="s">
         <v>21</v>
       </c>
       <c r="D611" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E611" t="s">
         <v>17</v>
       </c>
       <c r="F611" s="2">
-        <v>2819</v>
+        <v>2814</v>
       </c>
       <c r="G611" s="2">
-        <v>710</v>
+        <v>2648</v>
       </c>
       <c r="H611" s="1">
-        <v>0.82489916330000002</v>
+        <v>0.81356333920000001</v>
       </c>
       <c r="I611" s="1">
-        <v>0.53488962340000001</v>
+        <v>0.37367001929999999</v>
       </c>
       <c r="J611" s="1">
-        <v>1.2721477477000001</v>
+        <v>1.7713096387</v>
       </c>
       <c r="K611">
         <v>1</v>
@@ -24300,22 +24295,22 @@
         <v>19</v>
       </c>
       <c r="E612" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F612" s="2">
-        <v>2814</v>
+        <v>2158</v>
       </c>
       <c r="G612" s="2">
-        <v>2648</v>
+        <v>4190</v>
       </c>
       <c r="H612" s="1">
-        <v>0.81356333920000001</v>
+        <v>0.88587716039999997</v>
       </c>
       <c r="I612" s="1">
-        <v>0.37367001929999999</v>
+        <v>0.65305943060000005</v>
       </c>
       <c r="J612" s="1">
-        <v>1.7713096387</v>
+        <v>1.2016951390999999</v>
       </c>
       <c r="K612">
         <v>1</v>
@@ -24326,10 +24321,10 @@
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B613" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C613" t="s">
         <v>21</v>
@@ -24338,22 +24333,22 @@
         <v>19</v>
       </c>
       <c r="E613" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F613" s="2">
-        <v>2817</v>
+        <v>535</v>
       </c>
       <c r="G613" s="2">
-        <v>2648</v>
+        <v>662</v>
       </c>
       <c r="H613" s="1">
-        <v>0.78195662799999999</v>
+        <v>0.92576244470000002</v>
       </c>
       <c r="I613" s="1">
-        <v>0.27327751099999997</v>
+        <v>0.2311320949</v>
       </c>
       <c r="J613" s="1">
-        <v>2.2374917197999999</v>
+        <v>3.7079926274999999</v>
       </c>
       <c r="K613">
         <v>1</v>
@@ -25504,10 +25499,10 @@
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B644" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C644" t="s">
         <v>21</v>
@@ -25519,19 +25514,19 @@
         <v>17</v>
       </c>
       <c r="F644" s="2">
-        <v>2705</v>
+        <v>2803</v>
       </c>
       <c r="G644" s="2">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="H644" s="1">
-        <v>0.77331205240000001</v>
+        <v>2.0137933506999999</v>
       </c>
       <c r="I644" s="1">
-        <v>0.42379695140000001</v>
+        <v>0.84216212030000004</v>
       </c>
       <c r="J644" s="1">
-        <v>1.4110803024</v>
+        <v>4.8154192187999998</v>
       </c>
       <c r="K644">
         <v>1</v>
@@ -25542,10 +25537,10 @@
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B645" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C645" t="s">
         <v>21</v>
@@ -25554,28 +25549,28 @@
         <v>15</v>
       </c>
       <c r="E645" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F645" s="2">
-        <v>2778</v>
+        <v>2136</v>
       </c>
       <c r="G645" s="2">
-        <v>705</v>
+        <v>1369</v>
       </c>
       <c r="H645" s="1">
-        <v>0.77217537960000004</v>
+        <v>0.65818882209999996</v>
       </c>
       <c r="I645" s="1">
-        <v>0.31617330090000001</v>
+        <v>0.46944215830000002</v>
       </c>
       <c r="J645" s="1">
-        <v>1.8858480941</v>
+        <v>0.92282407489999996</v>
       </c>
       <c r="K645">
         <v>1</v>
       </c>
       <c r="L645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
@@ -25589,25 +25584,25 @@
         <v>21</v>
       </c>
       <c r="D646" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E646" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F646" s="2">
-        <v>2136</v>
+        <v>534</v>
       </c>
       <c r="G646" s="2">
-        <v>4158</v>
+        <v>138</v>
       </c>
       <c r="H646" s="1">
-        <v>0.77095486130000002</v>
+        <v>1.5116942872000001</v>
       </c>
       <c r="I646" s="1">
-        <v>0.57365714840000004</v>
+        <v>0.28164634599999999</v>
       </c>
       <c r="J646" s="1">
-        <v>1.0361091113000001</v>
+        <v>8.1137911082999992</v>
       </c>
       <c r="K646">
         <v>1</v>
@@ -25618,10 +25613,10 @@
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B647" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C647" t="s">
         <v>21</v>
@@ -25630,22 +25625,22 @@
         <v>19</v>
       </c>
       <c r="E647" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F647" s="2">
-        <v>2111</v>
+        <v>2803</v>
       </c>
       <c r="G647" s="2">
-        <v>4102</v>
+        <v>2640</v>
       </c>
       <c r="H647" s="1">
-        <v>0.76229247570000003</v>
+        <v>1.5872359635</v>
       </c>
       <c r="I647" s="1">
-        <v>0.57159108579999995</v>
+        <v>0.93420503669999999</v>
       </c>
       <c r="J647" s="1">
-        <v>1.0166180561</v>
+        <v>2.6967506112000001</v>
       </c>
       <c r="K647">
         <v>1</v>
@@ -25656,10 +25651,10 @@
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B648" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C648" t="s">
         <v>21</v>
@@ -25668,22 +25663,22 @@
         <v>19</v>
       </c>
       <c r="E648" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F648" s="2">
-        <v>2791</v>
+        <v>2136</v>
       </c>
       <c r="G648" s="2">
-        <v>2616</v>
+        <v>4158</v>
       </c>
       <c r="H648" s="1">
-        <v>0.72880230670000001</v>
+        <v>0.77095486130000002</v>
       </c>
       <c r="I648" s="1">
-        <v>0.46126415910000002</v>
+        <v>0.57365714840000004</v>
       </c>
       <c r="J648" s="1">
-        <v>1.1515154427000001</v>
+        <v>1.0361091113000001</v>
       </c>
       <c r="K648">
         <v>1</v>
@@ -25694,34 +25689,34 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B649" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C649" t="s">
         <v>21</v>
       </c>
       <c r="D649" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E649" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F649" s="2">
-        <v>2195</v>
+        <v>534</v>
       </c>
       <c r="G649" s="2">
-        <v>1422</v>
+        <v>658</v>
       </c>
       <c r="H649" s="1">
-        <v>0.72647331380000002</v>
+        <v>1.0606376657000001</v>
       </c>
       <c r="I649" s="1">
-        <v>0.21058840570000001</v>
+        <v>0.37093373680000002</v>
       </c>
       <c r="J649" s="1">
-        <v>2.5061373811999998</v>
+        <v>3.0327580000999999</v>
       </c>
       <c r="K649">
         <v>1</v>
@@ -26872,10 +26867,10 @@
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B680" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C680" t="s">
         <v>21</v>
@@ -26887,19 +26882,19 @@
         <v>17</v>
       </c>
       <c r="F680" s="2">
-        <v>2819</v>
+        <v>2749</v>
       </c>
       <c r="G680" s="2">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="H680" s="1">
-        <v>0.72637512130000004</v>
+        <v>0.9000384333</v>
       </c>
       <c r="I680" s="1">
-        <v>0.33625335680000001</v>
+        <v>0.45509747</v>
       </c>
       <c r="J680" s="1">
-        <v>1.569116876</v>
+        <v>1.779990518</v>
       </c>
       <c r="K680">
         <v>1</v>
@@ -26910,10 +26905,10 @@
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B681" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C681" t="s">
         <v>21</v>
@@ -26922,22 +26917,22 @@
         <v>15</v>
       </c>
       <c r="E681" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F681" s="2">
-        <v>2819</v>
+        <v>2119</v>
       </c>
       <c r="G681" s="2">
-        <v>710</v>
+        <v>1365</v>
       </c>
       <c r="H681" s="1">
-        <v>0.71225344800000001</v>
+        <v>1.2440741185999999</v>
       </c>
       <c r="I681" s="1">
-        <v>0.38561695029999998</v>
+        <v>0.82229498670000001</v>
       </c>
       <c r="J681" s="1">
-        <v>1.3155671027</v>
+        <v>1.8821960946</v>
       </c>
       <c r="K681">
         <v>1</v>
@@ -26948,34 +26943,34 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B682" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C682" t="s">
         <v>21</v>
       </c>
       <c r="D682" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E682" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F682" s="2">
-        <v>2819</v>
+        <v>531</v>
       </c>
       <c r="G682" s="2">
-        <v>2651</v>
+        <v>137</v>
       </c>
       <c r="H682" s="1">
-        <v>0.69169684819999999</v>
+        <v>4.0372754458999998</v>
       </c>
       <c r="I682" s="1">
-        <v>0.1367318384</v>
+        <v>0.50879979890000004</v>
       </c>
       <c r="J682" s="1">
-        <v>3.4991450095999999</v>
+        <v>32.035376313</v>
       </c>
       <c r="K682">
         <v>1</v>
@@ -26986,34 +26981,34 @@
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B683" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C683" t="s">
         <v>21</v>
       </c>
       <c r="D683" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E683" t="s">
         <v>17</v>
       </c>
       <c r="F683" s="2">
-        <v>2817</v>
+        <v>2749</v>
       </c>
       <c r="G683" s="2">
-        <v>709</v>
+        <v>2618</v>
       </c>
       <c r="H683" s="1">
-        <v>0.67789106590000003</v>
+        <v>1.4919544155</v>
       </c>
       <c r="I683" s="1">
-        <v>8.2986354400000004E-2</v>
+        <v>0.97839371610000003</v>
       </c>
       <c r="J683" s="1">
-        <v>5.5374922873000001</v>
+        <v>2.2750840905</v>
       </c>
       <c r="K683">
         <v>1</v>
@@ -27024,10 +27019,10 @@
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B684" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C684" t="s">
         <v>21</v>
@@ -27039,57 +27034,57 @@
         <v>18</v>
       </c>
       <c r="F684" s="2">
-        <v>2158</v>
+        <v>2119</v>
       </c>
       <c r="G684" s="2">
         <v>4188</v>
       </c>
       <c r="H684" s="1">
-        <v>0.66814212559999997</v>
+        <v>1.1738561755000001</v>
       </c>
       <c r="I684" s="1">
-        <v>0.47303352100000001</v>
+        <v>0.85823220140000001</v>
       </c>
       <c r="J684" s="1">
-        <v>0.94372571949999995</v>
+        <v>1.6055542061999999</v>
       </c>
       <c r="K684">
         <v>1</v>
       </c>
       <c r="L684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B685" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C685" t="s">
         <v>21</v>
       </c>
       <c r="D685" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E685" t="s">
         <v>16</v>
       </c>
       <c r="F685" s="2">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="G685" s="2">
-        <v>130</v>
+        <v>659</v>
       </c>
       <c r="H685" s="1">
-        <v>0.65889805970000004</v>
+        <v>1.1546730773</v>
       </c>
       <c r="I685" s="1">
-        <v>0.20184211699999999</v>
+        <v>0.41890374139999997</v>
       </c>
       <c r="J685" s="1">
-        <v>2.1509220150999999</v>
+        <v>3.1827596262000002</v>
       </c>
       <c r="K685">
         <v>1</v>
@@ -28240,10 +28235,10 @@
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B716" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C716" t="s">
         <v>21</v>
@@ -28252,60 +28247,60 @@
         <v>15</v>
       </c>
       <c r="E716" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F716" s="2">
-        <v>2136</v>
+        <v>2705</v>
       </c>
       <c r="G716" s="2">
-        <v>1369</v>
+        <v>686</v>
       </c>
       <c r="H716" s="1">
-        <v>0.65818882209999996</v>
+        <v>0.77331205240000001</v>
       </c>
       <c r="I716" s="1">
-        <v>0.46944215830000002</v>
+        <v>0.42379695140000001</v>
       </c>
       <c r="J716" s="1">
-        <v>0.92282407489999996</v>
+        <v>1.4110803024</v>
       </c>
       <c r="K716">
         <v>1</v>
       </c>
       <c r="L716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B717" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C717" t="s">
         <v>21</v>
       </c>
       <c r="D717" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E717" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F717" s="2">
-        <v>2817</v>
+        <v>2097</v>
       </c>
       <c r="G717" s="2">
-        <v>2651</v>
+        <v>1347</v>
       </c>
       <c r="H717" s="1">
-        <v>0.59040991880000004</v>
+        <v>1.0140482784</v>
       </c>
       <c r="I717" s="1">
-        <v>0.2271442216</v>
+        <v>0.66558373540000004</v>
       </c>
       <c r="J717" s="1">
-        <v>1.5346367599999999</v>
+        <v>1.5449504789999999</v>
       </c>
       <c r="K717">
         <v>1</v>
@@ -28316,34 +28311,34 @@
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B718" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C718" t="s">
         <v>21</v>
       </c>
       <c r="D718" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E718" t="s">
         <v>16</v>
       </c>
       <c r="F718" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="G718" s="2">
-        <v>640</v>
+        <v>135</v>
       </c>
       <c r="H718" s="1">
-        <v>0.56129820190000002</v>
+        <v>4.1021638147999999</v>
       </c>
       <c r="I718" s="1">
-        <v>0.28896617759999998</v>
+        <v>0.81493168090000001</v>
       </c>
       <c r="J718" s="1">
-        <v>1.0902856315</v>
+        <v>20.649274480999999</v>
       </c>
       <c r="K718">
         <v>1</v>
@@ -28354,48 +28349,48 @@
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B719" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C719" t="s">
         <v>21</v>
       </c>
       <c r="D719" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E719" t="s">
         <v>17</v>
       </c>
       <c r="F719" s="2">
-        <v>2818</v>
+        <v>2705</v>
       </c>
       <c r="G719" s="2">
-        <v>710</v>
+        <v>2607</v>
       </c>
       <c r="H719" s="1">
-        <v>0.5380713184</v>
+        <v>2.0246364253000002</v>
       </c>
       <c r="I719" s="1">
-        <v>4.9531929099999997E-2</v>
+        <v>1.2893210849000001</v>
       </c>
       <c r="J719" s="1">
-        <v>5.8451336067000002</v>
+        <v>3.1793109588999999</v>
       </c>
       <c r="K719">
         <v>1</v>
       </c>
       <c r="L719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B720" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C720" t="s">
         <v>21</v>
@@ -28404,66 +28399,66 @@
         <v>19</v>
       </c>
       <c r="E720" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F720" s="2">
-        <v>526</v>
+        <v>2097</v>
       </c>
       <c r="G720" s="2">
-        <v>657</v>
+        <v>4164</v>
       </c>
       <c r="H720" s="1">
-        <v>0.48287238850000003</v>
+        <v>1.6483653250000001</v>
       </c>
       <c r="I720" s="1">
-        <v>0.1441414949</v>
+        <v>1.1370726289999999</v>
       </c>
       <c r="J720" s="1">
-        <v>1.6176170766</v>
+        <v>2.3895643738999999</v>
       </c>
       <c r="K720">
         <v>1</v>
       </c>
       <c r="L720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B721" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C721" t="s">
         <v>21</v>
       </c>
       <c r="D721" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E721" t="s">
         <v>16</v>
       </c>
       <c r="F721" s="2">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="G721" s="2">
-        <v>139</v>
+        <v>656</v>
       </c>
       <c r="H721" s="1">
-        <v>0.4153779943</v>
+        <v>3.2824158923</v>
       </c>
       <c r="I721" s="1">
-        <v>9.9032199200000004E-2</v>
+        <v>1.0937543217000001</v>
       </c>
       <c r="J721" s="1">
-        <v>1.7422502932999999</v>
+        <v>9.8507076743000006</v>
       </c>
       <c r="K721">
         <v>1</v>
       </c>
       <c r="L721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -29608,34 +29603,34 @@
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B752" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C752" t="s">
         <v>21</v>
       </c>
       <c r="D752" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E752" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F752" s="2">
-        <v>534</v>
+        <v>2648</v>
       </c>
       <c r="G752" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H752" s="1">
-        <v>0.39291156109999997</v>
+        <v>1.6172880792</v>
       </c>
       <c r="I752" s="1">
-        <v>0.10901051990000001</v>
+        <v>0.94300291930000002</v>
       </c>
       <c r="J752" s="1">
-        <v>1.4161889606</v>
+        <v>2.7737143519999998</v>
       </c>
       <c r="K752">
         <v>1</v>
@@ -29646,72 +29641,72 @@
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B753" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C753" t="s">
         <v>21</v>
       </c>
       <c r="D753" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E753" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F753" s="2">
-        <v>530</v>
+        <v>2059</v>
       </c>
       <c r="G753" s="2">
-        <v>658</v>
+        <v>1309</v>
       </c>
       <c r="H753" s="1">
-        <v>0.38011368810000001</v>
+        <v>1.3676514839</v>
       </c>
       <c r="I753" s="1">
-        <v>0.172832078</v>
+        <v>0.9571321425</v>
       </c>
       <c r="J753" s="1">
-        <v>0.83599304919999995</v>
+        <v>1.9542448720000001</v>
       </c>
       <c r="K753">
         <v>1</v>
       </c>
       <c r="L753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B754" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C754" t="s">
         <v>21</v>
       </c>
       <c r="D754" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E754" t="s">
         <v>16</v>
       </c>
       <c r="F754" s="2">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="G754" s="2">
-        <v>663</v>
+        <v>130</v>
       </c>
       <c r="H754" s="1">
-        <v>0.24688084699999999</v>
+        <v>0.65889805970000004</v>
       </c>
       <c r="I754" s="1">
-        <v>2.74114198E-2</v>
+        <v>0.20184211699999999</v>
       </c>
       <c r="J754" s="1">
-        <v>2.2235313988000001</v>
+        <v>2.1509220150999999</v>
       </c>
       <c r="K754">
         <v>1</v>
@@ -29722,10 +29717,10 @@
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B755" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C755" t="s">
         <v>21</v>
@@ -29737,71 +29732,71 @@
         <v>17</v>
       </c>
       <c r="F755" s="2">
-        <v>2817</v>
+        <v>2648</v>
       </c>
       <c r="G755" s="2">
-        <v>2648</v>
+        <v>2552</v>
       </c>
       <c r="H755" s="1">
-        <v>0.2278014988</v>
+        <v>0.96373582550000003</v>
       </c>
       <c r="I755" s="1">
-        <v>7.1372567900000003E-2</v>
+        <v>0.72415951209999996</v>
       </c>
       <c r="J755" s="1">
-        <v>0.72707938559999996</v>
+        <v>1.2825720380000001</v>
       </c>
       <c r="K755">
         <v>1</v>
       </c>
       <c r="L755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B756" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C756" t="s">
         <v>21</v>
       </c>
       <c r="D756" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E756" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F756" s="2">
-        <v>2817</v>
+        <v>2059</v>
       </c>
       <c r="G756" s="2">
-        <v>708</v>
+        <v>4090</v>
       </c>
       <c r="H756" s="1">
-        <v>0.21017501659999999</v>
+        <v>1.0938862027</v>
       </c>
       <c r="I756" s="1">
-        <v>5.5953812200000001E-2</v>
+        <v>0.83660336280000003</v>
       </c>
       <c r="J756" s="1">
-        <v>0.78946430720000005</v>
+        <v>1.4302919132</v>
       </c>
       <c r="K756">
         <v>1</v>
       </c>
       <c r="L756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B757" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C757" t="s">
         <v>21</v>
@@ -29813,25 +29808,25 @@
         <v>16</v>
       </c>
       <c r="F757" s="2">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="G757" s="2">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="H757" s="1">
-        <v>0.17947740700000001</v>
+        <v>0.56129820190000002</v>
       </c>
       <c r="I757" s="1">
-        <v>3.7171941100000001E-2</v>
+        <v>0.28896617759999998</v>
       </c>
       <c r="J757" s="1">
-        <v>0.86657136069999996</v>
+        <v>1.0902856315</v>
       </c>
       <c r="K757">
         <v>1</v>
       </c>
       <c r="L757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
